--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>富国睿利定期开放混合</t>
   </si>
   <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
     <t>84.68</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>0.91</t>
+  </si>
+  <si>
+    <t>0.0274</t>
+  </si>
+  <si>
+    <t>0.0045</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005357</t>
-  </si>
-  <si>
-    <t>002908</t>
-  </si>
-  <si>
-    <t>富国国企改革灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国睿利定期开放混合</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>84.68</t>
-  </si>
-  <si>
-    <t>28.28</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.0274</t>
-  </si>
-  <si>
-    <t>0.0045</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.09</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1235,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.33</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.09</v>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.7</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,133 +455,665 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -789,253 +1321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163412</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全轻资产混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8067</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7872</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2318</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1513</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003831</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1162</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1043,81 +1329,81 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163412</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全轻资产混合(LOF)</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.20</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.26</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2490</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1125,37 +1411,37 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003831</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1163,292 +1449,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163412</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全轻资产混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8094</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011160</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国质量成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1007</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011161</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国质量成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7.09</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.7</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -566,6 +583,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1113,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1321,7 +2078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/601369-陕鼓动力.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.91</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>7.09</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.7</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016097</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016098</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015382</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015381</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015575</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015574</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1322,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1624,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1870,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
